--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Mtnr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Mtnr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>12.61536537943944</v>
+        <v>12.03810441642833</v>
       </c>
       <c r="R2">
-        <v>113.538288414955</v>
+        <v>108.342939747855</v>
       </c>
       <c r="S2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="T2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H3">
         <v>246.746613</v>
       </c>
       <c r="I3">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J3">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>6.838637211875667</v>
+        <v>6.838637211875666</v>
       </c>
       <c r="R3">
         <v>61.547734906881</v>
       </c>
       <c r="S3">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="T3">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H4">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I4">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J4">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>10.263860365759</v>
+        <v>13.62417330515856</v>
       </c>
       <c r="R4">
-        <v>92.374743291831</v>
+        <v>122.617559746427</v>
       </c>
       <c r="S4">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="T4">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H5">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I5">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J5">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>4.1599699776875</v>
+        <v>4.741282656750499</v>
       </c>
       <c r="R5">
-        <v>24.959819866125</v>
+        <v>28.447695940503</v>
       </c>
       <c r="S5">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="T5">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H6">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I6">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J6">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>12.83294969026778</v>
+        <v>12.29638215658889</v>
       </c>
       <c r="R6">
-        <v>115.49654721241</v>
+        <v>110.6674394093</v>
       </c>
       <c r="S6">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="T6">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
     </row>
   </sheetData>
